--- a/public/excel/520112001.xlsx
+++ b/public/excel/520112001.xlsx
@@ -497,9 +497,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -511,14 +511,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,9 +532,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,11 +547,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -580,23 +595,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,21 +612,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -633,7 +619,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,7 +648,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,7 +663,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,19 +783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,37 +795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,31 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,61 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,6 +862,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,6 +905,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -901,32 +927,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,124 +959,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1088,19 +1088,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/public/excel/520112001.xlsx
+++ b/public/excel/520112001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12080"/>
+    <workbookView windowWidth="28800" windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
   <si>
     <t>表格编号</t>
   </si>
@@ -133,6 +133,9 @@
     <t>赵泽运</t>
   </si>
   <si>
+    <t>regerbfdgdfg</t>
+  </si>
+  <si>
     <t>空心莲子草</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
   </si>
   <si>
     <t>严重</t>
+  </si>
+  <si>
+    <t>gfgerger</t>
   </si>
   <si>
     <t>苋</t>
@@ -497,9 +503,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -525,15 +531,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,11 +562,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -572,10 +586,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -589,32 +603,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -632,18 +645,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,13 +669,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,25 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,13 +753,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,31 +813,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,67 +843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,7 +867,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,8 +905,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,35 +939,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,94 +965,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1055,28 +1061,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1085,22 +1091,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1432,8 +1438,8 @@
   <sheetPr/>
   <dimension ref="A1:Z122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1564,11 +1570,14 @@
       <c r="O2" t="s">
         <v>38</v>
       </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V2">
         <v>16000</v>
@@ -1577,10 +1586,10 @@
         <v>0.75</v>
       </c>
       <c r="X2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1629,11 +1638,14 @@
       <c r="O3" t="s">
         <v>38</v>
       </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
       <c r="T3">
         <v>2</v>
       </c>
       <c r="U3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V3">
         <v>200</v>
@@ -1642,7 +1654,7 @@
         <v>0.1</v>
       </c>
       <c r="X3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1691,20 +1703,23 @@
       <c r="O4" t="s">
         <v>38</v>
       </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V4">
         <v>10</v>
       </c>
       <c r="W4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1753,11 +1768,14 @@
       <c r="O5" t="s">
         <v>38</v>
       </c>
+      <c r="P5" t="s">
+        <v>43</v>
+      </c>
       <c r="T5">
         <v>4</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V5">
         <v>1300</v>
@@ -1766,7 +1784,7 @@
         <v>0.5</v>
       </c>
       <c r="X5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1815,20 +1833,23 @@
       <c r="O6" t="s">
         <v>38</v>
       </c>
+      <c r="P6" t="s">
+        <v>39</v>
+      </c>
       <c r="T6">
         <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V6">
         <v>10</v>
       </c>
       <c r="W6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1877,28 +1898,31 @@
       <c r="O7" t="s">
         <v>38</v>
       </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
       <c r="T7">
         <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V7">
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1916,16 +1940,16 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L8">
         <v>1098</v>
@@ -1939,11 +1963,14 @@
       <c r="O8" t="s">
         <v>38</v>
       </c>
+      <c r="P8" t="s">
+        <v>39</v>
+      </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V8">
         <v>13000</v>
@@ -1952,18 +1979,18 @@
         <v>0.6</v>
       </c>
       <c r="X8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Z8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1981,16 +2008,16 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L9">
         <v>1098</v>
@@ -2004,11 +2031,14 @@
       <c r="O9" t="s">
         <v>38</v>
       </c>
+      <c r="P9" t="s">
+        <v>43</v>
+      </c>
       <c r="T9">
         <v>2</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V9">
         <v>300</v>
@@ -2017,15 +2047,15 @@
         <v>0.2</v>
       </c>
       <c r="X9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -2043,16 +2073,16 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10">
         <v>1098</v>
@@ -2066,11 +2096,14 @@
       <c r="O10" t="s">
         <v>38</v>
       </c>
+      <c r="P10" t="s">
+        <v>39</v>
+      </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V10">
         <v>150</v>
@@ -2079,15 +2112,15 @@
         <v>0.3</v>
       </c>
       <c r="X10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -2105,16 +2138,16 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L11">
         <v>1098</v>
@@ -2128,28 +2161,31 @@
       <c r="O11" t="s">
         <v>38</v>
       </c>
+      <c r="P11" t="s">
+        <v>43</v>
+      </c>
       <c r="T11">
         <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V11">
         <v>10</v>
       </c>
       <c r="W11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -2167,16 +2203,16 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L12">
         <v>1098</v>
@@ -2190,28 +2226,31 @@
       <c r="O12" t="s">
         <v>38</v>
       </c>
+      <c r="P12" t="s">
+        <v>39</v>
+      </c>
       <c r="T12">
         <v>5</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V12">
         <v>3</v>
       </c>
       <c r="W12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -2229,16 +2268,16 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L13">
         <v>1098</v>
@@ -2252,28 +2291,31 @@
       <c r="O13" t="s">
         <v>38</v>
       </c>
+      <c r="P13" t="s">
+        <v>43</v>
+      </c>
       <c r="T13">
         <v>6</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V13">
         <v>30</v>
       </c>
       <c r="W13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2291,16 +2333,16 @@
         <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L14">
         <v>1098</v>
@@ -2314,28 +2356,31 @@
       <c r="O14" t="s">
         <v>38</v>
       </c>
+      <c r="P14" t="s">
+        <v>39</v>
+      </c>
       <c r="T14">
         <v>7</v>
       </c>
       <c r="U14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V14">
         <v>18</v>
       </c>
       <c r="W14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -2353,16 +2398,16 @@
         <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L15">
         <v>1098</v>
@@ -2376,28 +2421,31 @@
       <c r="O15" t="s">
         <v>38</v>
       </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
       <c r="T15">
         <v>8</v>
       </c>
       <c r="U15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V15">
         <v>4</v>
       </c>
       <c r="W15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2415,16 +2463,16 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L16">
         <v>1082</v>
@@ -2438,11 +2486,14 @@
       <c r="O16" t="s">
         <v>38</v>
       </c>
+      <c r="P16" t="s">
+        <v>39</v>
+      </c>
       <c r="T16">
         <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V16">
         <v>1500</v>
@@ -2451,18 +2502,18 @@
         <v>0.3</v>
       </c>
       <c r="X16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Z16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="106" spans="1:24">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2480,16 +2531,16 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L17">
         <v>1082</v>
@@ -2503,28 +2554,31 @@
       <c r="O17" t="s">
         <v>38</v>
       </c>
+      <c r="P17" t="s">
+        <v>43</v>
+      </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V17">
         <v>4</v>
       </c>
       <c r="W17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" ht="106" spans="1:24">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2542,16 +2596,16 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L18">
         <v>1082</v>
@@ -2565,28 +2619,31 @@
       <c r="O18" t="s">
         <v>38</v>
       </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V18">
         <v>20</v>
       </c>
       <c r="W18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" ht="106" spans="1:24">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2604,16 +2661,16 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L19">
         <v>1082</v>
@@ -2627,11 +2684,14 @@
       <c r="O19" t="s">
         <v>38</v>
       </c>
+      <c r="P19" t="s">
+        <v>43</v>
+      </c>
       <c r="T19">
         <v>4</v>
       </c>
       <c r="U19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V19">
         <v>6000</v>
@@ -2640,15 +2700,15 @@
         <v>0.6</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" ht="106" spans="1:24">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2666,16 +2726,16 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L20">
         <v>1082</v>
@@ -2689,11 +2749,14 @@
       <c r="O20" t="s">
         <v>38</v>
       </c>
+      <c r="P20" t="s">
+        <v>39</v>
+      </c>
       <c r="T20">
         <v>5</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V20">
         <v>1000</v>
@@ -2702,15 +2765,15 @@
         <v>0.3</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" ht="106" spans="1:24">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2728,16 +2791,16 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L21">
         <v>1082</v>
@@ -2751,28 +2814,31 @@
       <c r="O21" t="s">
         <v>38</v>
       </c>
+      <c r="P21" t="s">
+        <v>43</v>
+      </c>
       <c r="T21">
         <v>6</v>
       </c>
       <c r="U21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V21">
         <v>70</v>
       </c>
       <c r="W21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" ht="106" spans="1:24">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2790,16 +2856,16 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L22">
         <v>1082</v>
@@ -2813,11 +2879,14 @@
       <c r="O22" t="s">
         <v>38</v>
       </c>
+      <c r="P22" t="s">
+        <v>39</v>
+      </c>
       <c r="T22">
         <v>7</v>
       </c>
       <c r="U22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V22">
         <v>800</v>
@@ -2826,15 +2895,15 @@
         <v>0.1</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="106" spans="1:24">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2852,16 +2921,16 @@
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L23">
         <v>1082</v>
@@ -2875,28 +2944,31 @@
       <c r="O23" t="s">
         <v>38</v>
       </c>
+      <c r="P23" t="s">
+        <v>43</v>
+      </c>
       <c r="T23">
         <v>8</v>
       </c>
       <c r="U23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V23">
         <v>3</v>
       </c>
       <c r="W23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" ht="106" spans="1:24">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2914,16 +2986,16 @@
         <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L24">
         <v>1082</v>
@@ -2937,11 +3009,14 @@
       <c r="O24" t="s">
         <v>38</v>
       </c>
+      <c r="P24" t="s">
+        <v>39</v>
+      </c>
       <c r="T24">
         <v>9</v>
       </c>
       <c r="U24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V24">
         <v>200</v>
@@ -2950,15 +3025,15 @@
         <v>0.2</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" ht="106" spans="1:24">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2976,16 +3051,16 @@
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L25">
         <v>1082</v>
@@ -2999,11 +3074,14 @@
       <c r="O25" t="s">
         <v>38</v>
       </c>
+      <c r="P25" t="s">
+        <v>43</v>
+      </c>
       <c r="T25">
         <v>10</v>
       </c>
       <c r="U25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V25">
         <v>500</v>
@@ -3012,15 +3090,15 @@
         <v>0.1</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -3044,10 +3122,10 @@
         <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L26">
         <v>1073</v>
@@ -3061,11 +3139,14 @@
       <c r="O26" t="s">
         <v>38</v>
       </c>
+      <c r="P26" t="s">
+        <v>39</v>
+      </c>
       <c r="T26">
         <v>1</v>
       </c>
       <c r="U26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V26">
         <v>1600</v>
@@ -3074,18 +3155,18 @@
         <v>0.4</v>
       </c>
       <c r="X26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -3109,10 +3190,10 @@
         <v>34</v>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L27">
         <v>1073</v>
@@ -3126,11 +3207,14 @@
       <c r="O27" t="s">
         <v>38</v>
       </c>
+      <c r="P27" t="s">
+        <v>43</v>
+      </c>
       <c r="T27">
         <v>2</v>
       </c>
       <c r="U27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V27">
         <v>200</v>
@@ -3139,15 +3223,15 @@
         <v>0.2</v>
       </c>
       <c r="X27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3171,10 +3255,10 @@
         <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L28">
         <v>1073</v>
@@ -3188,28 +3272,31 @@
       <c r="O28" t="s">
         <v>38</v>
       </c>
+      <c r="P28" t="s">
+        <v>39</v>
+      </c>
       <c r="T28">
         <v>3</v>
       </c>
       <c r="U28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V28">
         <v>9</v>
       </c>
       <c r="W28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3233,10 +3320,10 @@
         <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L29">
         <v>1073</v>
@@ -3250,28 +3337,31 @@
       <c r="O29" t="s">
         <v>38</v>
       </c>
+      <c r="P29" t="s">
+        <v>43</v>
+      </c>
       <c r="T29">
         <v>4</v>
       </c>
       <c r="U29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V29">
         <v>30</v>
       </c>
       <c r="W29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3295,10 +3385,10 @@
         <v>34</v>
       </c>
       <c r="J30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L30">
         <v>1073</v>
@@ -3312,28 +3402,31 @@
       <c r="O30" t="s">
         <v>38</v>
       </c>
+      <c r="P30" t="s">
+        <v>39</v>
+      </c>
       <c r="T30">
         <v>5</v>
       </c>
       <c r="U30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V30">
         <v>2</v>
       </c>
       <c r="W30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3357,10 +3450,10 @@
         <v>34</v>
       </c>
       <c r="J31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L31">
         <v>1073</v>
@@ -3374,28 +3467,31 @@
       <c r="O31" t="s">
         <v>38</v>
       </c>
+      <c r="P31" t="s">
+        <v>43</v>
+      </c>
       <c r="T31">
         <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V31">
         <v>4</v>
       </c>
       <c r="W31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3419,10 +3515,10 @@
         <v>34</v>
       </c>
       <c r="J32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L32">
         <v>1073</v>
@@ -3436,28 +3532,31 @@
       <c r="O32" t="s">
         <v>38</v>
       </c>
+      <c r="P32" t="s">
+        <v>39</v>
+      </c>
       <c r="T32">
         <v>7</v>
       </c>
       <c r="U32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V32">
         <v>20</v>
       </c>
       <c r="W32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3481,10 +3580,10 @@
         <v>34</v>
       </c>
       <c r="J33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L33">
         <v>1073</v>
@@ -3498,28 +3597,31 @@
       <c r="O33" t="s">
         <v>38</v>
       </c>
+      <c r="P33" t="s">
+        <v>43</v>
+      </c>
       <c r="T33">
         <v>8</v>
       </c>
       <c r="U33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V33">
         <v>5</v>
       </c>
       <c r="W33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3543,10 +3645,10 @@
         <v>34</v>
       </c>
       <c r="J34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L34">
         <v>1073</v>
@@ -3560,28 +3662,31 @@
       <c r="O34" t="s">
         <v>38</v>
       </c>
+      <c r="P34" t="s">
+        <v>39</v>
+      </c>
       <c r="T34">
         <v>9</v>
       </c>
       <c r="U34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V34">
         <v>10</v>
       </c>
       <c r="W34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3605,10 +3710,10 @@
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L35">
         <v>1073</v>
@@ -3622,28 +3727,31 @@
       <c r="O35" t="s">
         <v>38</v>
       </c>
+      <c r="P35" t="s">
+        <v>43</v>
+      </c>
       <c r="T35">
         <v>10</v>
       </c>
       <c r="U35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V35">
         <v>4</v>
       </c>
       <c r="W35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3667,10 +3775,10 @@
         <v>34</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L36">
         <v>1073</v>
@@ -3684,28 +3792,31 @@
       <c r="O36" t="s">
         <v>38</v>
       </c>
+      <c r="P36" t="s">
+        <v>39</v>
+      </c>
       <c r="T36">
         <v>11</v>
       </c>
       <c r="U36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V36">
         <v>6</v>
       </c>
       <c r="W36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3729,10 +3840,10 @@
         <v>34</v>
       </c>
       <c r="J37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L37">
         <v>1073</v>
@@ -3746,28 +3857,31 @@
       <c r="O37" t="s">
         <v>38</v>
       </c>
+      <c r="P37" t="s">
+        <v>43</v>
+      </c>
       <c r="T37">
         <v>12</v>
       </c>
       <c r="U37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V37">
         <v>2</v>
       </c>
       <c r="W37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3791,10 +3905,10 @@
         <v>34</v>
       </c>
       <c r="J38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L38">
         <v>1073</v>
@@ -3808,28 +3922,31 @@
       <c r="O38" t="s">
         <v>38</v>
       </c>
+      <c r="P38" t="s">
+        <v>39</v>
+      </c>
       <c r="T38">
         <v>13</v>
       </c>
       <c r="U38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V38">
         <v>8</v>
       </c>
       <c r="W38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3853,10 +3970,10 @@
         <v>34</v>
       </c>
       <c r="J39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L39">
         <v>1073</v>
@@ -3870,11 +3987,14 @@
       <c r="O39" t="s">
         <v>38</v>
       </c>
+      <c r="P39" t="s">
+        <v>43</v>
+      </c>
       <c r="T39">
         <v>14</v>
       </c>
       <c r="U39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V39">
         <v>1500</v>
@@ -3883,15 +4003,15 @@
         <v>0.3</v>
       </c>
       <c r="X39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3915,10 +4035,10 @@
         <v>34</v>
       </c>
       <c r="J40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L40">
         <v>1073</v>
@@ -3932,28 +4052,31 @@
       <c r="O40" t="s">
         <v>38</v>
       </c>
+      <c r="P40" t="s">
+        <v>39</v>
+      </c>
       <c r="T40">
         <v>15</v>
       </c>
       <c r="U40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V40">
         <v>4</v>
       </c>
       <c r="W40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -3977,10 +4100,10 @@
         <v>34</v>
       </c>
       <c r="J41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L41">
         <v>1073</v>
@@ -3994,28 +4117,31 @@
       <c r="O41" t="s">
         <v>38</v>
       </c>
+      <c r="P41" t="s">
+        <v>43</v>
+      </c>
       <c r="T41">
         <v>16</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V41">
         <v>2</v>
       </c>
       <c r="W41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4039,10 +4165,10 @@
         <v>34</v>
       </c>
       <c r="J42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L42">
         <v>1073</v>
@@ -4056,28 +4182,31 @@
       <c r="O42" t="s">
         <v>38</v>
       </c>
+      <c r="P42" t="s">
+        <v>39</v>
+      </c>
       <c r="T42">
         <v>17</v>
       </c>
       <c r="U42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V42">
         <v>7</v>
       </c>
       <c r="W42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4101,10 +4230,10 @@
         <v>34</v>
       </c>
       <c r="J43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L43">
         <v>1073</v>
@@ -4118,28 +4247,31 @@
       <c r="O43" t="s">
         <v>38</v>
       </c>
+      <c r="P43" t="s">
+        <v>43</v>
+      </c>
       <c r="T43">
         <v>18</v>
       </c>
       <c r="U43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V43">
         <v>7</v>
       </c>
       <c r="W43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4163,10 +4295,10 @@
         <v>34</v>
       </c>
       <c r="J44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L44">
         <v>1073</v>
@@ -4180,28 +4312,31 @@
       <c r="O44" t="s">
         <v>38</v>
       </c>
+      <c r="P44" t="s">
+        <v>39</v>
+      </c>
       <c r="T44">
         <v>19</v>
       </c>
       <c r="U44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V44">
         <v>2</v>
       </c>
       <c r="W44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4225,10 +4360,10 @@
         <v>34</v>
       </c>
       <c r="J45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L45">
         <v>1073</v>
@@ -4242,28 +4377,31 @@
       <c r="O45" t="s">
         <v>38</v>
       </c>
+      <c r="P45" t="s">
+        <v>43</v>
+      </c>
       <c r="T45">
         <v>20</v>
       </c>
       <c r="U45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="V45">
         <v>2</v>
       </c>
       <c r="W45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4287,10 +4425,10 @@
         <v>34</v>
       </c>
       <c r="J46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L46">
         <v>1073</v>
@@ -4304,28 +4442,31 @@
       <c r="O46" t="s">
         <v>38</v>
       </c>
+      <c r="P46" t="s">
+        <v>39</v>
+      </c>
       <c r="T46">
         <v>21</v>
       </c>
       <c r="U46" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V46">
         <v>3</v>
       </c>
       <c r="W46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4349,10 +4490,10 @@
         <v>34</v>
       </c>
       <c r="J47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K47" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L47">
         <v>1072</v>
@@ -4366,11 +4507,14 @@
       <c r="O47" t="s">
         <v>38</v>
       </c>
+      <c r="P47" t="s">
+        <v>43</v>
+      </c>
       <c r="T47">
         <v>1</v>
       </c>
       <c r="U47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V47">
         <v>14000</v>
@@ -4379,18 +4523,18 @@
         <v>0.7</v>
       </c>
       <c r="X47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4414,10 +4558,10 @@
         <v>34</v>
       </c>
       <c r="J48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L48">
         <v>1072</v>
@@ -4431,11 +4575,14 @@
       <c r="O48" t="s">
         <v>38</v>
       </c>
+      <c r="P48" t="s">
+        <v>39</v>
+      </c>
       <c r="T48">
         <v>2</v>
       </c>
       <c r="U48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V48">
         <v>5</v>
@@ -4444,15 +4591,15 @@
         <v>0.1</v>
       </c>
       <c r="X48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4476,10 +4623,10 @@
         <v>34</v>
       </c>
       <c r="J49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L49">
         <v>1072</v>
@@ -4493,28 +4640,31 @@
       <c r="O49" t="s">
         <v>38</v>
       </c>
+      <c r="P49" t="s">
+        <v>43</v>
+      </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V49">
         <v>8</v>
       </c>
       <c r="W49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4538,10 +4688,10 @@
         <v>34</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L50">
         <v>1072</v>
@@ -4555,11 +4705,14 @@
       <c r="O50" t="s">
         <v>38</v>
       </c>
+      <c r="P50" t="s">
+        <v>39</v>
+      </c>
       <c r="T50">
         <v>4</v>
       </c>
       <c r="U50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V50">
         <v>6</v>
@@ -4568,15 +4721,15 @@
         <v>0.1</v>
       </c>
       <c r="X50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4600,10 +4753,10 @@
         <v>34</v>
       </c>
       <c r="J51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L51">
         <v>1072</v>
@@ -4617,28 +4770,31 @@
       <c r="O51" t="s">
         <v>38</v>
       </c>
+      <c r="P51" t="s">
+        <v>43</v>
+      </c>
       <c r="T51">
         <v>5</v>
       </c>
       <c r="U51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V51">
         <v>5</v>
       </c>
       <c r="W51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X51" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -4662,10 +4818,10 @@
         <v>34</v>
       </c>
       <c r="J52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K52" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L52">
         <v>1072</v>
@@ -4679,11 +4835,14 @@
       <c r="O52" t="s">
         <v>38</v>
       </c>
+      <c r="P52" t="s">
+        <v>39</v>
+      </c>
       <c r="T52">
         <v>6</v>
       </c>
       <c r="U52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V52">
         <v>200</v>
@@ -4692,15 +4851,15 @@
         <v>0.6</v>
       </c>
       <c r="X52" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -4724,10 +4883,10 @@
         <v>34</v>
       </c>
       <c r="J53" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K53" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L53">
         <v>1072</v>
@@ -4741,28 +4900,31 @@
       <c r="O53" t="s">
         <v>38</v>
       </c>
+      <c r="P53" t="s">
+        <v>43</v>
+      </c>
       <c r="T53">
         <v>7</v>
       </c>
       <c r="U53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V53">
         <v>8</v>
       </c>
       <c r="W53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X53" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -4786,10 +4948,10 @@
         <v>34</v>
       </c>
       <c r="J54" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K54" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L54">
         <v>1072</v>
@@ -4803,28 +4965,31 @@
       <c r="O54" t="s">
         <v>38</v>
       </c>
+      <c r="P54" t="s">
+        <v>39</v>
+      </c>
       <c r="T54">
         <v>8</v>
       </c>
       <c r="U54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V54">
         <v>5</v>
       </c>
       <c r="W54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X54" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -4848,10 +5013,10 @@
         <v>34</v>
       </c>
       <c r="J55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K55" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L55">
         <v>1072</v>
@@ -4865,28 +5030,31 @@
       <c r="O55" t="s">
         <v>38</v>
       </c>
+      <c r="P55" t="s">
+        <v>43</v>
+      </c>
       <c r="T55">
         <v>9</v>
       </c>
       <c r="U55" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V55">
         <v>1</v>
       </c>
       <c r="W55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X55" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -4910,10 +5078,10 @@
         <v>34</v>
       </c>
       <c r="J56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L56">
         <v>1072</v>
@@ -4927,28 +5095,31 @@
       <c r="O56" t="s">
         <v>38</v>
       </c>
+      <c r="P56" t="s">
+        <v>39</v>
+      </c>
       <c r="T56">
         <v>10</v>
       </c>
       <c r="U56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V56">
         <v>4</v>
       </c>
       <c r="W56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X56" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -4972,10 +5143,10 @@
         <v>34</v>
       </c>
       <c r="J57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L57">
         <v>1072</v>
@@ -4989,11 +5160,14 @@
       <c r="O57" t="s">
         <v>38</v>
       </c>
+      <c r="P57" t="s">
+        <v>43</v>
+      </c>
       <c r="T57">
         <v>11</v>
       </c>
       <c r="U57" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V57">
         <v>1000</v>
@@ -5002,15 +5176,15 @@
         <v>0.3</v>
       </c>
       <c r="X57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5028,16 +5202,16 @@
         <v>32</v>
       </c>
       <c r="H58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J58" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K58" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L58">
         <v>1081</v>
@@ -5051,11 +5225,14 @@
       <c r="O58" t="s">
         <v>38</v>
       </c>
+      <c r="P58" t="s">
+        <v>39</v>
+      </c>
       <c r="T58">
         <v>1</v>
       </c>
       <c r="U58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V58">
         <v>12000</v>
@@ -5064,18 +5241,18 @@
         <v>0.6</v>
       </c>
       <c r="X58" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5093,16 +5270,16 @@
         <v>32</v>
       </c>
       <c r="H59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J59" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K59" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L59">
         <v>1081</v>
@@ -5116,11 +5293,14 @@
       <c r="O59" t="s">
         <v>38</v>
       </c>
+      <c r="P59" t="s">
+        <v>43</v>
+      </c>
       <c r="T59">
         <v>2</v>
       </c>
       <c r="U59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V59">
         <v>80</v>
@@ -5129,15 +5309,15 @@
         <v>0.3</v>
       </c>
       <c r="X59" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5155,16 +5335,16 @@
         <v>32</v>
       </c>
       <c r="H60" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J60" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K60" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L60">
         <v>1081</v>
@@ -5178,11 +5358,14 @@
       <c r="O60" t="s">
         <v>38</v>
       </c>
+      <c r="P60" t="s">
+        <v>39</v>
+      </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V60">
         <v>16000</v>
@@ -5191,15 +5374,15 @@
         <v>0.7</v>
       </c>
       <c r="X60" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5217,16 +5400,16 @@
         <v>32</v>
       </c>
       <c r="H61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J61" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K61" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L61">
         <v>1081</v>
@@ -5240,28 +5423,31 @@
       <c r="O61" t="s">
         <v>38</v>
       </c>
+      <c r="P61" t="s">
+        <v>43</v>
+      </c>
       <c r="T61">
         <v>4</v>
       </c>
       <c r="U61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V61">
         <v>1</v>
       </c>
       <c r="W61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X61" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5279,16 +5465,16 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J62" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L62">
         <v>1081</v>
@@ -5302,28 +5488,31 @@
       <c r="O62" t="s">
         <v>38</v>
       </c>
+      <c r="P62" t="s">
+        <v>39</v>
+      </c>
       <c r="T62">
         <v>5</v>
       </c>
       <c r="U62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V62">
         <v>4</v>
       </c>
       <c r="W62" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X62" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -5341,16 +5530,16 @@
         <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K63" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L63">
         <v>1081</v>
@@ -5364,28 +5553,31 @@
       <c r="O63" t="s">
         <v>38</v>
       </c>
+      <c r="P63" t="s">
+        <v>43</v>
+      </c>
       <c r="T63">
         <v>6</v>
       </c>
       <c r="U63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="V63">
         <v>1</v>
       </c>
       <c r="W63" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X63" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -5403,16 +5595,16 @@
         <v>32</v>
       </c>
       <c r="H64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J64" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L64">
         <v>1081</v>
@@ -5426,28 +5618,31 @@
       <c r="O64" t="s">
         <v>38</v>
       </c>
+      <c r="P64" t="s">
+        <v>39</v>
+      </c>
       <c r="T64">
         <v>7</v>
       </c>
       <c r="U64" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V64">
         <v>5</v>
       </c>
       <c r="W64" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X64" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -5465,16 +5660,16 @@
         <v>32</v>
       </c>
       <c r="H65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J65" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K65" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L65">
         <v>1081</v>
@@ -5488,28 +5683,31 @@
       <c r="O65" t="s">
         <v>38</v>
       </c>
+      <c r="P65" t="s">
+        <v>43</v>
+      </c>
       <c r="T65">
         <v>8</v>
       </c>
       <c r="U65" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="V65">
         <v>4</v>
       </c>
       <c r="W65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -5527,16 +5725,16 @@
         <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J66" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K66" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L66">
         <v>1081</v>
@@ -5550,28 +5748,31 @@
       <c r="O66" t="s">
         <v>38</v>
       </c>
+      <c r="P66" t="s">
+        <v>39</v>
+      </c>
       <c r="T66">
         <v>9</v>
       </c>
       <c r="U66" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V66">
         <v>6</v>
       </c>
       <c r="W66" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X66" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -5589,16 +5790,16 @@
         <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J67" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K67" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L67">
         <v>1081</v>
@@ -5612,28 +5813,31 @@
       <c r="O67" t="s">
         <v>38</v>
       </c>
+      <c r="P67" t="s">
+        <v>43</v>
+      </c>
       <c r="T67">
         <v>10</v>
       </c>
       <c r="U67" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V67">
         <v>2</v>
       </c>
       <c r="W67" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X67" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -5651,16 +5855,16 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I68" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J68" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K68" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L68">
         <v>1085</v>
@@ -5674,11 +5878,14 @@
       <c r="O68" t="s">
         <v>38</v>
       </c>
+      <c r="P68" t="s">
+        <v>39</v>
+      </c>
       <c r="T68">
         <v>1</v>
       </c>
       <c r="U68" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="V68">
         <v>12</v>
@@ -5687,18 +5894,18 @@
         <v>0.3</v>
       </c>
       <c r="X68" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z68" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -5716,16 +5923,16 @@
         <v>32</v>
       </c>
       <c r="H69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I69" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J69" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K69" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L69">
         <v>1085</v>
@@ -5739,28 +5946,31 @@
       <c r="O69" t="s">
         <v>38</v>
       </c>
+      <c r="P69" t="s">
+        <v>43</v>
+      </c>
       <c r="T69">
         <v>2</v>
       </c>
       <c r="U69" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V69">
         <v>1</v>
       </c>
       <c r="W69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X69" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -5778,16 +5988,16 @@
         <v>32</v>
       </c>
       <c r="H70" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I70" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J70" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K70" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L70">
         <v>1085</v>
@@ -5801,11 +6011,14 @@
       <c r="O70" t="s">
         <v>38</v>
       </c>
+      <c r="P70" t="s">
+        <v>39</v>
+      </c>
       <c r="T70">
         <v>3</v>
       </c>
       <c r="U70" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V70">
         <v>40</v>
@@ -5814,15 +6027,15 @@
         <v>0.1</v>
       </c>
       <c r="X70" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -5840,16 +6053,16 @@
         <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J71" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K71" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L71">
         <v>1085</v>
@@ -5863,11 +6076,14 @@
       <c r="O71" t="s">
         <v>38</v>
       </c>
+      <c r="P71" t="s">
+        <v>43</v>
+      </c>
       <c r="T71">
         <v>4</v>
       </c>
       <c r="U71" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V71">
         <v>500</v>
@@ -5876,15 +6092,15 @@
         <v>0.2</v>
       </c>
       <c r="X71" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -5902,16 +6118,16 @@
         <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I72" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K72" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L72">
         <v>1085</v>
@@ -5925,28 +6141,31 @@
       <c r="O72" t="s">
         <v>38</v>
       </c>
+      <c r="P72" t="s">
+        <v>39</v>
+      </c>
       <c r="T72">
         <v>5</v>
       </c>
       <c r="U72" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="V72">
         <v>30</v>
       </c>
       <c r="W72" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X72" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -5964,16 +6183,16 @@
         <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I73" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J73" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L73">
         <v>1085</v>
@@ -5987,28 +6206,31 @@
       <c r="O73" t="s">
         <v>38</v>
       </c>
+      <c r="P73" t="s">
+        <v>43</v>
+      </c>
       <c r="T73">
         <v>6</v>
       </c>
       <c r="U73" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V73">
         <v>20</v>
       </c>
       <c r="W73" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X73" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -6026,16 +6248,16 @@
         <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I74" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J74" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K74" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L74">
         <v>1085</v>
@@ -6049,11 +6271,14 @@
       <c r="O74" t="s">
         <v>38</v>
       </c>
+      <c r="P74" t="s">
+        <v>39</v>
+      </c>
       <c r="T74">
         <v>7</v>
       </c>
       <c r="U74" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V74">
         <v>10000</v>
@@ -6062,15 +6287,15 @@
         <v>0.9</v>
       </c>
       <c r="X74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -6088,16 +6313,16 @@
         <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I75" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J75" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K75" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L75">
         <v>1085</v>
@@ -6111,11 +6336,14 @@
       <c r="O75" t="s">
         <v>38</v>
       </c>
+      <c r="P75" t="s">
+        <v>43</v>
+      </c>
       <c r="T75">
         <v>8</v>
       </c>
       <c r="U75" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V75">
         <v>8</v>
@@ -6124,15 +6352,15 @@
         <v>0.2</v>
       </c>
       <c r="X75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -6150,16 +6378,16 @@
         <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I76" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J76" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K76" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L76">
         <v>1085</v>
@@ -6173,28 +6401,31 @@
       <c r="O76" t="s">
         <v>38</v>
       </c>
+      <c r="P76" t="s">
+        <v>39</v>
+      </c>
       <c r="T76">
         <v>9</v>
       </c>
       <c r="U76" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V76">
         <v>8</v>
       </c>
       <c r="W76" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X76" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -6212,16 +6443,16 @@
         <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I77" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J77" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K77" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L77">
         <v>1085</v>
@@ -6235,11 +6466,14 @@
       <c r="O77" t="s">
         <v>38</v>
       </c>
+      <c r="P77" t="s">
+        <v>43</v>
+      </c>
       <c r="T77">
         <v>10</v>
       </c>
       <c r="U77" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="V77">
         <v>400</v>
@@ -6248,15 +6482,15 @@
         <v>0.6</v>
       </c>
       <c r="X77" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -6274,16 +6508,16 @@
         <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J78" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K78" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L78">
         <v>1085</v>
@@ -6297,28 +6531,31 @@
       <c r="O78" t="s">
         <v>38</v>
       </c>
+      <c r="P78" t="s">
+        <v>39</v>
+      </c>
       <c r="T78">
         <v>11</v>
       </c>
       <c r="U78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V78">
         <v>12</v>
       </c>
       <c r="W78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X78" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -6336,16 +6573,16 @@
         <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I79" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J79" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K79" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L79">
         <v>1085</v>
@@ -6359,28 +6596,31 @@
       <c r="O79" t="s">
         <v>38</v>
       </c>
+      <c r="P79" t="s">
+        <v>43</v>
+      </c>
       <c r="T79">
         <v>12</v>
       </c>
       <c r="U79" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="V79">
         <v>30</v>
       </c>
       <c r="W79" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X79" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -6398,16 +6638,16 @@
         <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J80" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K80" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L80">
         <v>1085</v>
@@ -6421,11 +6661,14 @@
       <c r="O80" t="s">
         <v>38</v>
       </c>
+      <c r="P80" t="s">
+        <v>39</v>
+      </c>
       <c r="T80">
         <v>13</v>
       </c>
       <c r="U80" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="V80">
         <v>200</v>
@@ -6434,15 +6677,15 @@
         <v>0.2</v>
       </c>
       <c r="X80" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:26">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -6460,16 +6703,16 @@
         <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I81" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J81" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K81" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L81">
         <v>1097</v>
@@ -6483,11 +6726,14 @@
       <c r="O81" t="s">
         <v>38</v>
       </c>
+      <c r="P81" t="s">
+        <v>43</v>
+      </c>
       <c r="T81">
         <v>1</v>
       </c>
       <c r="U81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V81">
         <v>800</v>
@@ -6496,18 +6742,18 @@
         <v>0.2</v>
       </c>
       <c r="X81" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Z81" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -6525,16 +6771,16 @@
         <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J82" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K82" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L82">
         <v>1097</v>
@@ -6548,11 +6794,14 @@
       <c r="O82" t="s">
         <v>38</v>
       </c>
+      <c r="P82" t="s">
+        <v>39</v>
+      </c>
       <c r="T82">
         <v>2</v>
       </c>
       <c r="U82" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="V82">
         <v>300</v>
@@ -6561,15 +6810,15 @@
         <v>0.2</v>
       </c>
       <c r="X82" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -6587,16 +6836,16 @@
         <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J83" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K83" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L83">
         <v>1097</v>
@@ -6610,11 +6859,14 @@
       <c r="O83" t="s">
         <v>38</v>
       </c>
+      <c r="P83" t="s">
+        <v>43</v>
+      </c>
       <c r="T83">
         <v>3</v>
       </c>
       <c r="U83" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V83">
         <v>40</v>
@@ -6623,15 +6875,15 @@
         <v>0.2</v>
       </c>
       <c r="X83" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -6649,16 +6901,16 @@
         <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I84" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J84" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K84" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L84">
         <v>1097</v>
@@ -6672,11 +6924,14 @@
       <c r="O84" t="s">
         <v>38</v>
       </c>
+      <c r="P84" t="s">
+        <v>39</v>
+      </c>
       <c r="T84">
         <v>4</v>
       </c>
       <c r="U84" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V84">
         <v>9000</v>
@@ -6685,15 +6940,15 @@
         <v>0.7</v>
       </c>
       <c r="X84" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B85" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -6711,16 +6966,16 @@
         <v>32</v>
       </c>
       <c r="H85" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I85" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J85" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K85" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L85">
         <v>1097</v>
@@ -6734,11 +6989,14 @@
       <c r="O85" t="s">
         <v>38</v>
       </c>
+      <c r="P85" t="s">
+        <v>43</v>
+      </c>
       <c r="T85">
         <v>5</v>
       </c>
       <c r="U85" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="V85">
         <v>3000</v>
@@ -6747,15 +7005,15 @@
         <v>0.3</v>
       </c>
       <c r="X85" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B86" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -6773,16 +7031,16 @@
         <v>32</v>
       </c>
       <c r="H86" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I86" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J86" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K86" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L86">
         <v>1097</v>
@@ -6796,28 +7054,31 @@
       <c r="O86" t="s">
         <v>38</v>
       </c>
+      <c r="P86" t="s">
+        <v>39</v>
+      </c>
       <c r="T86">
         <v>6</v>
       </c>
       <c r="U86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="V86">
         <v>200</v>
       </c>
       <c r="W86" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X86" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -6835,16 +7096,16 @@
         <v>32</v>
       </c>
       <c r="H87" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I87" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J87" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K87" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L87">
         <v>1097</v>
@@ -6858,11 +7119,14 @@
       <c r="O87" t="s">
         <v>38</v>
       </c>
+      <c r="P87" t="s">
+        <v>43</v>
+      </c>
       <c r="T87">
         <v>7</v>
       </c>
       <c r="U87" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V87">
         <v>5000</v>
@@ -6871,15 +7135,15 @@
         <v>0.5</v>
       </c>
       <c r="X87" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -6897,16 +7161,16 @@
         <v>32</v>
       </c>
       <c r="H88" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I88" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J88" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K88" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L88">
         <v>1097</v>
@@ -6920,28 +7184,31 @@
       <c r="O88" t="s">
         <v>38</v>
       </c>
+      <c r="P88" t="s">
+        <v>39</v>
+      </c>
       <c r="T88">
         <v>8</v>
       </c>
       <c r="U88" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="V88">
         <v>4</v>
       </c>
       <c r="W88" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X88" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -6959,16 +7226,16 @@
         <v>32</v>
       </c>
       <c r="H89" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K89" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L89">
         <v>1097</v>
@@ -6982,28 +7249,31 @@
       <c r="O89" t="s">
         <v>38</v>
       </c>
+      <c r="P89" t="s">
+        <v>43</v>
+      </c>
       <c r="T89">
         <v>9</v>
       </c>
       <c r="U89" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V89">
         <v>30</v>
       </c>
       <c r="W89" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X89" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -7021,16 +7291,16 @@
         <v>32</v>
       </c>
       <c r="H90" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I90" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J90" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L90">
         <v>1097</v>
@@ -7044,28 +7314,31 @@
       <c r="O90" t="s">
         <v>38</v>
       </c>
+      <c r="P90" t="s">
+        <v>39</v>
+      </c>
       <c r="T90">
         <v>10</v>
       </c>
       <c r="U90" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V90">
         <v>10</v>
       </c>
       <c r="W90" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -7083,16 +7356,16 @@
         <v>32</v>
       </c>
       <c r="H91" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I91" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J91" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K91" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L91">
         <v>1097</v>
@@ -7106,28 +7379,31 @@
       <c r="O91" t="s">
         <v>38</v>
       </c>
+      <c r="P91" t="s">
+        <v>43</v>
+      </c>
       <c r="T91">
         <v>11</v>
       </c>
       <c r="U91" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V91">
         <v>5</v>
       </c>
       <c r="W91" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -7145,16 +7421,16 @@
         <v>32</v>
       </c>
       <c r="H92" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I92" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J92" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K92" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L92">
         <v>1097</v>
@@ -7168,28 +7444,31 @@
       <c r="O92" t="s">
         <v>38</v>
       </c>
+      <c r="P92" t="s">
+        <v>39</v>
+      </c>
       <c r="T92">
         <v>12</v>
       </c>
       <c r="U92" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="V92">
         <v>2</v>
       </c>
       <c r="W92" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X92" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -7207,16 +7486,16 @@
         <v>32</v>
       </c>
       <c r="H93" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I93" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J93" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K93" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L93">
         <v>1097</v>
@@ -7230,28 +7509,31 @@
       <c r="O93" t="s">
         <v>38</v>
       </c>
+      <c r="P93" t="s">
+        <v>43</v>
+      </c>
       <c r="T93">
         <v>13</v>
       </c>
       <c r="U93" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V93">
         <v>4</v>
       </c>
       <c r="W93" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X93" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:26">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B94" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -7275,10 +7557,10 @@
         <v>34</v>
       </c>
       <c r="J94" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K94" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L94">
         <v>1084</v>
@@ -7292,11 +7574,14 @@
       <c r="O94" t="s">
         <v>38</v>
       </c>
+      <c r="P94" t="s">
+        <v>39</v>
+      </c>
       <c r="T94">
         <v>1</v>
       </c>
       <c r="U94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V94">
         <v>2000</v>
@@ -7305,18 +7590,18 @@
         <v>0.4</v>
       </c>
       <c r="X94" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Z94" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B95" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -7340,10 +7625,10 @@
         <v>34</v>
       </c>
       <c r="J95" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K95" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L95">
         <v>1084</v>
@@ -7357,11 +7642,14 @@
       <c r="O95" t="s">
         <v>38</v>
       </c>
+      <c r="P95" t="s">
+        <v>43</v>
+      </c>
       <c r="T95">
         <v>2</v>
       </c>
       <c r="U95" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V95">
         <v>150</v>
@@ -7370,15 +7658,15 @@
         <v>0.3</v>
       </c>
       <c r="X95" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B96" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -7402,10 +7690,10 @@
         <v>34</v>
       </c>
       <c r="J96" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K96" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L96">
         <v>1084</v>
@@ -7419,11 +7707,14 @@
       <c r="O96" t="s">
         <v>38</v>
       </c>
+      <c r="P96" t="s">
+        <v>39</v>
+      </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="V96">
         <v>15</v>
@@ -7432,15 +7723,15 @@
         <v>0.1</v>
       </c>
       <c r="X96" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -7464,10 +7755,10 @@
         <v>34</v>
       </c>
       <c r="J97" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K97" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L97">
         <v>1084</v>
@@ -7481,28 +7772,31 @@
       <c r="O97" t="s">
         <v>38</v>
       </c>
+      <c r="P97" t="s">
+        <v>43</v>
+      </c>
       <c r="T97">
         <v>4</v>
       </c>
       <c r="U97" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V97">
         <v>1</v>
       </c>
       <c r="W97" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X97" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -7526,10 +7820,10 @@
         <v>34</v>
       </c>
       <c r="J98" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K98" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L98">
         <v>1084</v>
@@ -7543,11 +7837,14 @@
       <c r="O98" t="s">
         <v>38</v>
       </c>
+      <c r="P98" t="s">
+        <v>39</v>
+      </c>
       <c r="T98">
         <v>5</v>
       </c>
       <c r="U98" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V98">
         <v>500</v>
@@ -7556,15 +7853,15 @@
         <v>0.3</v>
       </c>
       <c r="X98" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -7588,10 +7885,10 @@
         <v>34</v>
       </c>
       <c r="J99" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K99" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L99">
         <v>1084</v>
@@ -7605,28 +7902,31 @@
       <c r="O99" t="s">
         <v>38</v>
       </c>
+      <c r="P99" t="s">
+        <v>43</v>
+      </c>
       <c r="T99">
         <v>6</v>
       </c>
       <c r="U99" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="V99">
         <v>2</v>
       </c>
       <c r="W99" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X99" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B100" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -7650,10 +7950,10 @@
         <v>34</v>
       </c>
       <c r="J100" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K100" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L100">
         <v>1084</v>
@@ -7667,28 +7967,31 @@
       <c r="O100" t="s">
         <v>38</v>
       </c>
+      <c r="P100" t="s">
+        <v>39</v>
+      </c>
       <c r="T100">
         <v>7</v>
       </c>
       <c r="U100" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V100">
         <v>3</v>
       </c>
       <c r="W100" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X100" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B101" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -7712,10 +8015,10 @@
         <v>34</v>
       </c>
       <c r="J101" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K101" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L101">
         <v>1084</v>
@@ -7729,28 +8032,31 @@
       <c r="O101" t="s">
         <v>38</v>
       </c>
+      <c r="P101" t="s">
+        <v>43</v>
+      </c>
       <c r="T101">
         <v>8</v>
       </c>
       <c r="U101" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="V101">
         <v>8</v>
       </c>
       <c r="W101" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X101" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B102" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -7774,10 +8080,10 @@
         <v>34</v>
       </c>
       <c r="J102" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K102" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L102">
         <v>1084</v>
@@ -7791,28 +8097,31 @@
       <c r="O102" t="s">
         <v>38</v>
       </c>
+      <c r="P102" t="s">
+        <v>39</v>
+      </c>
       <c r="T102">
         <v>9</v>
       </c>
       <c r="U102" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="V102">
         <v>2</v>
       </c>
       <c r="W102" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X102" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -7836,10 +8145,10 @@
         <v>34</v>
       </c>
       <c r="J103" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K103" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L103">
         <v>1084</v>
@@ -7853,28 +8162,31 @@
       <c r="O103" t="s">
         <v>38</v>
       </c>
+      <c r="P103" t="s">
+        <v>43</v>
+      </c>
       <c r="T103">
         <v>10</v>
       </c>
       <c r="U103" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V103">
         <v>20</v>
       </c>
       <c r="W103" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X103" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -7898,10 +8210,10 @@
         <v>34</v>
       </c>
       <c r="J104" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K104" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L104">
         <v>1084</v>
@@ -7915,28 +8227,31 @@
       <c r="O104" t="s">
         <v>38</v>
       </c>
+      <c r="P104" t="s">
+        <v>39</v>
+      </c>
       <c r="T104">
         <v>11</v>
       </c>
       <c r="U104" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="V104">
         <v>5</v>
       </c>
       <c r="W104" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X104" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B105" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -7960,10 +8275,10 @@
         <v>34</v>
       </c>
       <c r="J105" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K105" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L105">
         <v>1084</v>
@@ -7977,28 +8292,31 @@
       <c r="O105" t="s">
         <v>38</v>
       </c>
+      <c r="P105" t="s">
+        <v>43</v>
+      </c>
       <c r="T105">
         <v>12</v>
       </c>
       <c r="U105" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V105">
         <v>1</v>
       </c>
       <c r="W105" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X105" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B106" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -8022,10 +8340,10 @@
         <v>34</v>
       </c>
       <c r="J106" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K106" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L106">
         <v>1084</v>
@@ -8039,11 +8357,14 @@
       <c r="O106" t="s">
         <v>38</v>
       </c>
+      <c r="P106" t="s">
+        <v>39</v>
+      </c>
       <c r="T106">
         <v>13</v>
       </c>
       <c r="U106" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="V106">
         <v>200</v>
@@ -8052,15 +8373,15 @@
         <v>0.1</v>
       </c>
       <c r="X106" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B107" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -8084,10 +8405,10 @@
         <v>34</v>
       </c>
       <c r="J107" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K107" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L107">
         <v>1084</v>
@@ -8101,28 +8422,31 @@
       <c r="O107" t="s">
         <v>38</v>
       </c>
+      <c r="P107" t="s">
+        <v>43</v>
+      </c>
       <c r="T107">
         <v>14</v>
       </c>
       <c r="U107" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V107">
         <v>2</v>
       </c>
       <c r="W107" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X107" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B108" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -8146,10 +8470,10 @@
         <v>34</v>
       </c>
       <c r="J108" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K108" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L108">
         <v>1084</v>
@@ -8163,28 +8487,31 @@
       <c r="O108" t="s">
         <v>38</v>
       </c>
+      <c r="P108" t="s">
+        <v>39</v>
+      </c>
       <c r="T108">
         <v>15</v>
       </c>
       <c r="U108" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="V108">
         <v>1</v>
       </c>
       <c r="W108" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X108" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B109" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -8208,10 +8535,10 @@
         <v>34</v>
       </c>
       <c r="J109" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K109" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L109">
         <v>1084</v>
@@ -8225,28 +8552,31 @@
       <c r="O109" t="s">
         <v>38</v>
       </c>
+      <c r="P109" t="s">
+        <v>43</v>
+      </c>
       <c r="T109">
         <v>16</v>
       </c>
       <c r="U109" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V109">
         <v>40</v>
       </c>
       <c r="W109" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X109" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B110" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -8270,10 +8600,10 @@
         <v>34</v>
       </c>
       <c r="J110" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K110" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L110">
         <v>1084</v>
@@ -8287,11 +8617,14 @@
       <c r="O110" t="s">
         <v>38</v>
       </c>
+      <c r="P110" t="s">
+        <v>39</v>
+      </c>
       <c r="T110">
         <v>17</v>
       </c>
       <c r="U110" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="V110">
         <v>2</v>
@@ -8300,15 +8633,15 @@
         <v>0.2</v>
       </c>
       <c r="X110" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -8332,10 +8665,10 @@
         <v>34</v>
       </c>
       <c r="J111" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K111" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L111">
         <v>1084</v>
@@ -8349,11 +8682,14 @@
       <c r="O111" t="s">
         <v>38</v>
       </c>
+      <c r="P111" t="s">
+        <v>43</v>
+      </c>
       <c r="T111">
         <v>18</v>
       </c>
       <c r="U111" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="V111">
         <v>10</v>
@@ -8362,15 +8698,15 @@
         <v>0.3</v>
       </c>
       <c r="X111" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -8394,10 +8730,10 @@
         <v>34</v>
       </c>
       <c r="J112" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K112" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L112">
         <v>1084</v>
@@ -8411,11 +8747,14 @@
       <c r="O112" t="s">
         <v>38</v>
       </c>
+      <c r="P112" t="s">
+        <v>39</v>
+      </c>
       <c r="T112">
         <v>19</v>
       </c>
       <c r="U112" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V112">
         <v>5</v>
@@ -8424,15 +8763,15 @@
         <v>0.2</v>
       </c>
       <c r="X112" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B113" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -8456,10 +8795,10 @@
         <v>34</v>
       </c>
       <c r="J113" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K113" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L113">
         <v>1084</v>
@@ -8473,28 +8812,31 @@
       <c r="O113" t="s">
         <v>38</v>
       </c>
+      <c r="P113" t="s">
+        <v>43</v>
+      </c>
       <c r="T113">
         <v>20</v>
       </c>
       <c r="U113" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="V113">
         <v>4</v>
       </c>
       <c r="W113" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X113" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -8518,10 +8860,10 @@
         <v>34</v>
       </c>
       <c r="J114" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K114" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L114">
         <v>1084</v>
@@ -8535,11 +8877,14 @@
       <c r="O114" t="s">
         <v>38</v>
       </c>
+      <c r="P114" t="s">
+        <v>39</v>
+      </c>
       <c r="T114">
         <v>21</v>
       </c>
       <c r="U114" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V114">
         <v>100</v>
@@ -8548,15 +8893,15 @@
         <v>0.2</v>
       </c>
       <c r="X114" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -8580,10 +8925,10 @@
         <v>34</v>
       </c>
       <c r="J115" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K115" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L115">
         <v>1084</v>
@@ -8597,28 +8942,31 @@
       <c r="O115" t="s">
         <v>38</v>
       </c>
+      <c r="P115" t="s">
+        <v>43</v>
+      </c>
       <c r="T115">
         <v>22</v>
       </c>
       <c r="U115" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V115">
         <v>8</v>
       </c>
       <c r="W115" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X115" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B116" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -8642,10 +8990,10 @@
         <v>34</v>
       </c>
       <c r="J116" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K116" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L116">
         <v>1084</v>
@@ -8659,11 +9007,14 @@
       <c r="O116" t="s">
         <v>38</v>
       </c>
+      <c r="P116" t="s">
+        <v>39</v>
+      </c>
       <c r="T116">
         <v>23</v>
       </c>
       <c r="U116" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="V116">
         <v>50</v>
@@ -8672,15 +9023,15 @@
         <v>0.1</v>
       </c>
       <c r="X116" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -8704,10 +9055,10 @@
         <v>34</v>
       </c>
       <c r="J117" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K117" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L117">
         <v>1084</v>
@@ -8721,28 +9072,31 @@
       <c r="O117" t="s">
         <v>38</v>
       </c>
+      <c r="P117" t="s">
+        <v>43</v>
+      </c>
       <c r="T117">
         <v>24</v>
       </c>
       <c r="U117" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V117">
         <v>10</v>
       </c>
       <c r="W117" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X117" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B118" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -8766,10 +9120,10 @@
         <v>34</v>
       </c>
       <c r="J118" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K118" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L118">
         <v>1084</v>
@@ -8783,11 +9137,14 @@
       <c r="O118" t="s">
         <v>38</v>
       </c>
+      <c r="P118" t="s">
+        <v>39</v>
+      </c>
       <c r="T118">
         <v>25</v>
       </c>
       <c r="U118" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="V118">
         <v>20</v>
@@ -8796,15 +9153,15 @@
         <v>0.1</v>
       </c>
       <c r="X118" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -8828,10 +9185,10 @@
         <v>34</v>
       </c>
       <c r="J119" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K119" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L119">
         <v>1084</v>
@@ -8845,28 +9202,31 @@
       <c r="O119" t="s">
         <v>38</v>
       </c>
+      <c r="P119" t="s">
+        <v>43</v>
+      </c>
       <c r="T119">
         <v>26</v>
       </c>
       <c r="U119" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="V119">
         <v>1</v>
       </c>
       <c r="W119" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X119" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -8890,10 +9250,10 @@
         <v>34</v>
       </c>
       <c r="J120" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K120" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L120">
         <v>1084</v>
@@ -8907,28 +9267,31 @@
       <c r="O120" t="s">
         <v>38</v>
       </c>
+      <c r="P120" t="s">
+        <v>39</v>
+      </c>
       <c r="T120">
         <v>27</v>
       </c>
       <c r="U120" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="V120">
         <v>2</v>
       </c>
       <c r="W120" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X120" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -8952,10 +9315,10 @@
         <v>34</v>
       </c>
       <c r="J121" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K121" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L121">
         <v>1084</v>
@@ -8969,28 +9332,31 @@
       <c r="O121" t="s">
         <v>38</v>
       </c>
+      <c r="P121" t="s">
+        <v>43</v>
+      </c>
       <c r="T121">
         <v>28</v>
       </c>
       <c r="U121" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="V121">
         <v>3</v>
       </c>
       <c r="W121" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X121" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -9014,10 +9380,10 @@
         <v>34</v>
       </c>
       <c r="J122" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K122" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L122">
         <v>1084</v>
@@ -9031,11 +9397,14 @@
       <c r="O122" t="s">
         <v>38</v>
       </c>
+      <c r="P122" t="s">
+        <v>39</v>
+      </c>
       <c r="T122">
         <v>29</v>
       </c>
       <c r="U122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V122">
         <v>17000</v>
@@ -9044,7 +9413,7 @@
         <v>0.9</v>
       </c>
       <c r="X122" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
